--- a/FromExample.xlsx
+++ b/FromExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>Дата заявки</t>
   </si>
@@ -89,12 +89,19 @@
   </si>
   <si>
     <t>ул. Гоголя, д. 200, кв. 60</t>
+  </si>
+  <si>
+    <t>СРОЧНАЯ ДОСТАВКА</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,16 +158,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -470,18 +481,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.82421875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.9765625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.8359375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.4453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.5078125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3359375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.10546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.34765625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.22265625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.84375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.4765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,6 +783,47 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
